--- a/examples/Data.xlsx
+++ b/examples/Data.xlsx
@@ -5,24 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20D16FA-11DD-43F0-8D62-3C67540768FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4ADA8F-864E-47A4-8C13-CD72E1F1A268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Учителя" sheetId="1" r:id="rId1"/>
-    <sheet name="Предметы" sheetId="2" r:id="rId2"/>
-    <sheet name="Кабинеты" sheetId="3" r:id="rId3"/>
+    <sheet name="Кабинеты" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ФИученика22</t>
   </si>
@@ -34,21 +33,6 @@
   </si>
   <si>
     <t>ФИученика25</t>
-  </si>
-  <si>
-    <t>Предмет1</t>
-  </si>
-  <si>
-    <t>Предмет2</t>
-  </si>
-  <si>
-    <t>Предмет3</t>
-  </si>
-  <si>
-    <t>Предмет4</t>
-  </si>
-  <si>
-    <t>Предмет5</t>
   </si>
   <si>
     <t>a2</t>
@@ -67,10 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm"/>
-  </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -98,7 +79,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -415,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -424,80 +405,37 @@
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -506,9 +444,9 @@
     <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1">
         <v>0.375</v>
@@ -516,41 +454,41 @@
       <c r="C1" s="1">
         <v>0.875</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>150</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C2" s="1">
-        <v>0.8541666666666666</v>
-      </c>
-      <c r="D2" s="0">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D2">
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="1">
         <v>0.875</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>36526.25</v>
@@ -558,13 +496,12 @@
       <c r="C4" s="1">
         <v>36526.979166666664</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>